--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2796.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2796.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168776853362245</v>
+        <v>0.9724684953689575</v>
       </c>
       <c r="B1">
-        <v>2.4384643888121</v>
+        <v>1.749895930290222</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.794293403625488</v>
       </c>
       <c r="D1">
-        <v>2.366011501101122</v>
+        <v>1.356752753257751</v>
       </c>
       <c r="E1">
-        <v>1.232412736162831</v>
+        <v>1.23593807220459</v>
       </c>
     </row>
   </sheetData>
